--- a/web_scrapping/base_sonda.xlsx
+++ b/web_scrapping/base_sonda.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Principal.000\Documents\Bruno\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Principal.000\Documents\merc4d0\web_scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D850AB-B69A-4FAA-BE49-CB42B3D4CADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67618CF0-94A8-47B8-ABF8-37BC80F96B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base Final" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="378">
   <si>
     <t>Produto</t>
   </si>
@@ -977,6 +978,183 @@
   </si>
   <si>
     <t>https://www.sondadelivery.com.br/img.aspx/sku/1280864/270/1000008004.jpg</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>índice</t>
+  </si>
+  <si>
+    <t>nome_resumido</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>nome_original</t>
+  </si>
+  <si>
+    <t>Linguiça Cuiabana (500g)</t>
+  </si>
+  <si>
+    <t>Lasanha Bolonhesa (600g)</t>
+  </si>
+  <si>
+    <t>Manteiga Paulista (200g)</t>
+  </si>
+  <si>
+    <t>Gillette (2 unid.)</t>
+  </si>
+  <si>
+    <t>Pizza Portuguesa (460g)</t>
+  </si>
+  <si>
+    <t>Farofa Kisabor (500g)</t>
+  </si>
+  <si>
+    <t>Grego Blueberry (100g)</t>
+  </si>
+  <si>
+    <t>Lasanha 4 Queijos (600g)</t>
+  </si>
+  <si>
+    <t>Vinho Chileno (750mL)</t>
+  </si>
+  <si>
+    <t>Coca-Cola (1,5 c/ 4 unid.)</t>
+  </si>
+  <si>
+    <t>Passatempo (130g)</t>
+  </si>
+  <si>
+    <t>Biscoito de Maizena (200g)</t>
+  </si>
+  <si>
+    <t>Colgate Extracts (90g)</t>
+  </si>
+  <si>
+    <t>Red Label (1L)</t>
+  </si>
+  <si>
+    <t>Torrada Light (140g)</t>
+  </si>
+  <si>
+    <t>Smirnoff (1L)</t>
+  </si>
+  <si>
+    <t>Torrada Integral (140g)</t>
+  </si>
+  <si>
+    <t>Chandelle Chocolate (180g)</t>
+  </si>
+  <si>
+    <t>Chikenitos (300g)</t>
+  </si>
+  <si>
+    <t>Chocolate em Pó (200g)</t>
+  </si>
+  <si>
+    <t>Água Mineral (1,5L)</t>
+  </si>
+  <si>
+    <t>Chocolate ao Leite (92g)</t>
+  </si>
+  <si>
+    <t>Toddynho (200mL)</t>
+  </si>
+  <si>
+    <t>Queijo Ralado (50g)</t>
+  </si>
+  <si>
+    <t>Chocolate Branco (92g)</t>
+  </si>
+  <si>
+    <t>Chocolate Ovomaltine (87g)</t>
+  </si>
+  <si>
+    <t>Requeijão Light (500g)</t>
+  </si>
+  <si>
+    <t>Pizza Mussarela (440g)</t>
+  </si>
+  <si>
+    <t>Petit Gateau (240g)</t>
+  </si>
+  <si>
+    <t>Pizza Calabresa (460g)</t>
+  </si>
+  <si>
+    <t>Água Sanitária (2L)</t>
+  </si>
+  <si>
+    <t>Pizza 4 Queijos (460g)</t>
+  </si>
+  <si>
+    <t>Energético (2L)</t>
+  </si>
+  <si>
+    <t>Pão de Alho (400g)</t>
+  </si>
+  <si>
+    <t>Frango Desfiado (400g)</t>
+  </si>
+  <si>
+    <t>Hambúrguer (672g)</t>
+  </si>
+  <si>
+    <t>Lasanha Calabresa (600g)</t>
+  </si>
+  <si>
+    <t>Bolo de Chocolate (300g)</t>
+  </si>
+  <si>
+    <t>Vinho Argentino (750mL)</t>
+  </si>
+  <si>
+    <t>Arroz (5kg)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/22578/270/22578.jpg</t>
+  </si>
+  <si>
+    <t>Feijão (1kg)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/21776/270/21776.jpg</t>
+  </si>
+  <si>
+    <t>Ovos (20 unid.)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/429431/270/c83d0efe-0bc6-48d8-9f1b-dffcc42c1fe2.JPG</t>
+  </si>
+  <si>
+    <t>Maçã (1kg)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/62481/270/maca-turma-da-monica.jpg</t>
+  </si>
+  <si>
+    <t>Macarrão (500g)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/186830/270/186830.jpg</t>
+  </si>
+  <si>
+    <t>Suco de Laranja (1,5L)</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/1545892/270/1000007710.jpg</t>
+  </si>
+  <si>
+    <t>https://www.sondadelivery.com.br/img.aspx/sku/1515641/270/1515641.jpg</t>
+  </si>
+  <si>
+    <t>Laranja (1kg)</t>
   </si>
 </sst>
 </file>
@@ -1391,1589 +1569,2879 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>163</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>163</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>176</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>99</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>103</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>104</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>141</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>106</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>178</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>141</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>109</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>153</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>161</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>111</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>139</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>156</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>114</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>161</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
         <v>115</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>180</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>181</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>117</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>138</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
         <v>119</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>183</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>138</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
         <v>123</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
         <v>124</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>161</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>161</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
         <v>126</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>139</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>186</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>180</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>165</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
         <v>131</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
         <v>132</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>318</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F0D6CC-D404-4E02-9FEE-49F877AA2BBD}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.85546875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A2,Sheet1!A:A,0))</f>
+        <v>Linguiça tipo cuiabana Gourmet Seara 500g</v>
+      </c>
+      <c r="D2" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A2,Sheet1!A:A,0))</f>
+        <v>11,99</v>
+      </c>
+      <c r="E2" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A2,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1676288/270/1000031633-1.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A3,Sheet1!A:A,0))</f>
+        <v>Aparelho de Barbear Descartável Gillette Prestobarba3 Cool c/2 Unidades</v>
+      </c>
+      <c r="D3" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A3,Sheet1!A:A,0))</f>
+        <v>9,85</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A3,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1176862/270/7702018983872-Aparelho-de-Barbear-Descartavel-Gillette--Prestobarba3-Cool-c_2-Unidades-Sem-titulo15.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A4,Sheet1!A:A,0))</f>
+        <v>Lasanha à bolonhesa Seara 600g</v>
+      </c>
+      <c r="D4" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A4,Sheet1!A:A,0))</f>
+        <v>7,90</v>
+      </c>
+      <c r="E4" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A4,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1046071/270/1000011503.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A5,Sheet1!A:A,0))</f>
+        <v>Manteiga com sal Paulista 200g</v>
+      </c>
+      <c r="D5" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A5,Sheet1!A:A,0))</f>
+        <v>6,59</v>
+      </c>
+      <c r="E5" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A5,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1681567/270/1681567.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A6,Sheet1!A:A,0))</f>
+        <v>Iogurte Vigor Grego Blueberry 100g</v>
+      </c>
+      <c r="D6" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A6,Sheet1!A:A,0))</f>
+        <v>1,59</v>
+      </c>
+      <c r="E6" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A6,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1532081/270/1510207.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A7,Sheet1!A:A,0))</f>
+        <v>Lasanha Seara 4 queijos 600g</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A7,Sheet1!A:A,0))</f>
+        <v>7,90</v>
+      </c>
+      <c r="E7" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A7,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1046080/270/1000011500.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A8,Sheet1!A:A,0))</f>
+        <v>Vinho Chileno Concha y Toro Merlot Tinto Reservado 750ml</v>
+      </c>
+      <c r="D8" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A8,Sheet1!A:A,0))</f>
+        <v>32,90</v>
+      </c>
+      <c r="E8" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A8,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/560669/270/1000008858-2.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A9,Sheet1!A:A,0))</f>
+        <v>Refrigerante Coca-Cola pet 1,5L c/ 4 unidades</v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A9,Sheet1!A:A,0))</f>
+        <v>22,76</v>
+      </c>
+      <c r="E9" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A9,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1154109/270/7894900018547.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A10,Sheet1!A:A,0))</f>
+        <v>Biscoito Passatempo Recheado Chocolate 130g</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A10,Sheet1!A:A,0))</f>
+        <v>1,59</v>
+      </c>
+      <c r="E10" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A10,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1563718/270/1000005290.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A11,Sheet1!A:A,0))</f>
+        <v>Biscoito de maizena Tostines 200g</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A11,Sheet1!A:A,0))</f>
+        <v>2,39</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A11,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/7986/270/1000005939.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A12,Sheet1!A:A,0))</f>
+        <v>Creme dental natural extracts Colgate 90g</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A12,Sheet1!A:A,0))</f>
+        <v>5,99</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A12,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1675427/270/1000031544.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A13,Sheet1!A:A,0))</f>
+        <v>Whisky Johnnie Walker Red Label 1L</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A13,Sheet1!A:A,0))</f>
+        <v>120,89</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A13,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/59480/270/1000007904.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A14,Sheet1!A:A,0))</f>
+        <v>Pizza Seara portuguesa 460g</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A14,Sheet1!A:A,0))</f>
+        <v>9,89</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A14,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1504142/270/1000011786.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A15,Sheet1!A:A,0))</f>
+        <v>Farofa pronta Kisabor temperada 500g</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A15,Sheet1!A:A,0))</f>
+        <v>3,19</v>
+      </c>
+      <c r="E15" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A15,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/878804/270/1000002380.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A16,Sheet1!A:A,0))</f>
+        <v>Vodka Smirnoff 998ml</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A16,Sheet1!A:A,0))</f>
+        <v>33,90</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A16,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/79715/270/1000008561.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A17,Sheet1!A:A,0))</f>
+        <v>Torrada Wickbold Especial 100% Integral 140g</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A17,Sheet1!A:A,0))</f>
+        <v>3,89</v>
+      </c>
+      <c r="E17" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A17,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1510959/270/1000009821.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A18,Sheet1!A:A,0))</f>
+        <v>Torrada Wickbold light 140g</v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A18,Sheet1!A:A,0))</f>
+        <v>3,89</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A18,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/478253/270/1000009650.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A19,Sheet1!A:A,0))</f>
+        <v>Sobremesa CHANDELLE Chocolate 180g</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A19,Sheet1!A:A,0))</f>
+        <v>2,28</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A19,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1511297/270/1511297.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A20,Sheet1!A:A,0))</f>
+        <v>Chikenitos Seara Tradicional 300g</v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A20,Sheet1!A:A,0))</f>
+        <v>5,97</v>
+      </c>
+      <c r="E20" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A20,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1482441/270/1000011012_antiga.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A21,Sheet1!A:A,0))</f>
+        <v>Chocolate em Pó NESTLÉ Dois Frades 200g</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A21,Sheet1!A:A,0))</f>
+        <v>10,99</v>
+      </c>
+      <c r="E21" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A21,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/19283/270/1000004272.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A22,Sheet1!A:A,0))</f>
+        <v>Água mineral Nestlé Pureza Vital sem Gás 1,5L</v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A22,Sheet1!A:A,0))</f>
+        <v>1,68</v>
+      </c>
+      <c r="E22" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A22,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/532533/270/1000007607.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A23,Sheet1!A:A,0))</f>
+        <v>Chocolate ao Leite Hershey's 92g</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A23,Sheet1!A:A,0))</f>
+        <v>3,49</v>
+      </c>
+      <c r="E23" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A23,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1633970/270/1000025780.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A24,Sheet1!A:A,0))</f>
+        <v>Bebida láctea Toddynho chocolate 200ml</v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A24,Sheet1!A:A,0))</f>
+        <v>1,55</v>
+      </c>
+      <c r="E24" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A24,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/143197/270/1000007112_1.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A25,Sheet1!A:A,0))</f>
+        <v>Queijo ralado parmesão Vigor Faixa Azul 50g</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A25,Sheet1!A:A,0))</f>
+        <v>4,49</v>
+      </c>
+      <c r="E25" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A25,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/143944/270/143944.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A26,Sheet1!A:A,0))</f>
+        <v>Chocolate Hershey's Branco 92g</v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A26,Sheet1!A:A,0))</f>
+        <v>3,49</v>
+      </c>
+      <c r="E26" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A26,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1633996/270/1000025782.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A27,Sheet1!A:A,0))</f>
+        <v>Chocolate Hershey's Ovomaltine 87g</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A27,Sheet1!A:A,0))</f>
+        <v>3,49</v>
+      </c>
+      <c r="E27" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A27,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1634020/270/1000025785.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A28,Sheet1!A:A,0))</f>
+        <v>Requeijão Vigor cremoso light 500g</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A28,Sheet1!A:A,0))</f>
+        <v>10,99</v>
+      </c>
+      <c r="E28" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A28,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1000035097/270/1000035097.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A29,Sheet1!A:A,0))</f>
+        <v>Petit Gateau Mr.Bey chocolate 240g</v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A29,Sheet1!A:A,0))</f>
+        <v>12,15</v>
+      </c>
+      <c r="E29" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A29,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1431285/270/1431285.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A30,Sheet1!A:A,0))</f>
+        <v>Pizza Seara mussarela 440g</v>
+      </c>
+      <c r="D30" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A30,Sheet1!A:A,0))</f>
+        <v>9,89</v>
+      </c>
+      <c r="E30" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A30,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1364006/270/1000011785.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A31,Sheet1!A:A,0))</f>
+        <v>Água sanitária Daclor 2L</v>
+      </c>
+      <c r="D31" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A31,Sheet1!A:A,0))</f>
+        <v>3,29</v>
+      </c>
+      <c r="E31" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A31,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/412031/270/412031.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A32,Sheet1!A:A,0))</f>
+        <v>Pizza Seara calabresa 460g</v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A32,Sheet1!A:A,0))</f>
+        <v>9,89</v>
+      </c>
+      <c r="E32" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A32,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1363999/270/1000011782.jpg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A33,Sheet1!A:A,0))</f>
+        <v>Pizza Seara 4 Queijos 460g</v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A33,Sheet1!A:A,0))</f>
+        <v>9,89</v>
+      </c>
+      <c r="E33" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A33,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1364014/270/1000011779.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A34,Sheet1!A:A,0))</f>
+        <v>Energético Energy Drink Tsunami pet 2 L</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A34,Sheet1!A:A,0))</f>
+        <v>5,69</v>
+      </c>
+      <c r="E34" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A34,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1633112/270/1000025700.jpg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A35,Sheet1!A:A,0))</f>
+        <v>Peito de Frango Seara Preparo Fácil Desfiado 400g</v>
+      </c>
+      <c r="D35" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A35,Sheet1!A:A,0))</f>
+        <v>13,99</v>
+      </c>
+      <c r="E35" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A35,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1598716/270/1598716.jpg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A36,Sheet1!A:A,0))</f>
+        <v>Pão de Alho com queijo parmesão Invita 400g</v>
+      </c>
+      <c r="D36" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A36,Sheet1!A:A,0))</f>
+        <v>7,95</v>
+      </c>
+      <c r="E36" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A36,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1406507/270/1000011551.jpg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A37,Sheet1!A:A,0))</f>
+        <v>Hambúrguer Aurora bovino 672g</v>
+      </c>
+      <c r="D37" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A37,Sheet1!A:A,0))</f>
+        <v>15,99</v>
+      </c>
+      <c r="E37" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A37,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/24970/270/24970.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A38,Sheet1!A:A,0))</f>
+        <v>Lasanha de calabresa Seara 600g</v>
+      </c>
+      <c r="D38" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A38,Sheet1!A:A,0))</f>
+        <v>7,90</v>
+      </c>
+      <c r="E38" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A38,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1243489/270/1000011504.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A39,Sheet1!A:A,0))</f>
+        <v>Bolo Panco de chocolate 300g</v>
+      </c>
+      <c r="D39" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A39,Sheet1!A:A,0))</f>
+        <v>5,19</v>
+      </c>
+      <c r="E39" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A39,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1258214/270/1000009507.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" t="str">
+        <f>INDEX(Sheet1!B:B,MATCH(A40,Sheet1!A:A,0))</f>
+        <v>Vinho Argentino Tinto Meio Seco Reservado Malbec Mendoza Garrafa 750ml</v>
+      </c>
+      <c r="D40" t="str">
+        <f>INDEX(Sheet1!C:C,MATCH('Base Final'!A40,Sheet1!A:A,0))</f>
+        <v>32,90</v>
+      </c>
+      <c r="E40" t="str">
+        <f>INDEX(Sheet1!D:D,MATCH('Base Final'!A40,Sheet1!A:A,0))</f>
+        <v>https://www.sondadelivery.com.br/img.aspx/sku/1280864/270/1000008004.jpg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41">
+        <v>32.99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42">
+        <v>7.68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43">
+        <v>9.69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44">
+        <v>10.77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45">
+        <v>3.18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46">
+        <v>10.58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47">
+        <v>7.37</v>
+      </c>
+      <c r="E47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/web_scrapping/base_sonda.xlsx
+++ b/web_scrapping/base_sonda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Principal.000\Documents\merc4d0\web_scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67618CF0-94A8-47B8-ABF8-37BC80F96B28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49AED0-4CC1-44C3-93BB-ADCA34EDBE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
